--- a/excel files/Manger reports and reviews.xlsx
+++ b/excel files/Manger reports and reviews.xlsx
@@ -15,12 +15,12 @@
   <sheets>
     <sheet name="Manger reports and reviews" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Title</t>
   </si>
@@ -43,7 +43,7 @@
     <t>Review</t>
   </si>
   <si>
-    <t>LOOKING GOOD
+    <t xml:space="preserve">LOOKING GOOD
 You smoked Today boss, as always!!
 By : Abdullah Elrouby
 ID : HRAE1706
@@ -62,7 +62,7 @@
     <t>Report</t>
   </si>
   <si>
-    <t>HR DEPARTMENT RAISE
+    <t xml:space="preserve">HR DEPARTMENT RAISE
 Its time for HR department annual raise, the raise value should be 20% this year for there acheivment this year
 By : Abdullah Elrouby
 ID : HRAE1706
@@ -73,12 +73,26 @@
   </si>
   <si>
     <t>28-Jun-24 2:27:48 AM</t>
+  </si>
+  <si>
+    <t>COFFEE MACHIEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COFFEE MACHIEN
+Maybe a coffee machien would help in productivty
+By : Abdullah Elrouby
+ID : HRAE1706
+Date : 05-Jul-24 3:28:42 AM</t>
+  </si>
+  <si>
+    <t>05-Jul-24 3:28:42 AM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -125,21 +139,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="3" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" applyFill="1" borderId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -456,7 +476,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
@@ -464,7 +484,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -481,7 +501,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -498,7 +518,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -513,9 +533,27 @@
       </c>
       <c r="E3" s="5" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>